--- a/data/trans_dic/P22$mutuaSPriv-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutuaSPriv-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00633276403922747</v>
+        <v>0.00715476634553933</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005259579961664465</v>
+        <v>0.005294116435364734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00141746405418361</v>
+        <v>0.001468378917520911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005627671485440527</v>
+        <v>0.005642749109108213</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01190494995121097</v>
+        <v>0.01226179256846962</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001345450020729149</v>
+        <v>0.001345238944892202</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002799281391053107</v>
+        <v>0.00298288097650476</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.005874925254866149</v>
+        <v>0.005868084640734834</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01160931420320367</v>
+        <v>0.01208691244132031</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.004720006040363238</v>
+        <v>0.004758636619307407</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.003386795541475505</v>
+        <v>0.003028038087178585</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.007273545188210701</v>
+        <v>0.007463334394629702</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0266984445614441</v>
+        <v>0.02803711750188708</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02641747191129783</v>
+        <v>0.02640989882153955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01375099037247757</v>
+        <v>0.01405942353449449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02655518356376179</v>
+        <v>0.02720822571646569</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03325067218868335</v>
+        <v>0.03289756488846775</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01355932354137552</v>
+        <v>0.01254190079769743</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01912289948410673</v>
+        <v>0.01973136094765037</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01806267562805296</v>
+        <v>0.01727466135627654</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02643919231582267</v>
+        <v>0.02682077796499546</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01618399250854393</v>
+        <v>0.01669397021576978</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01358638348370731</v>
+        <v>0.01324486214506241</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01882858114613687</v>
+        <v>0.01963296241113297</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.01201885628760534</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.02052010030369547</v>
+        <v>0.02052010030369546</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.01831259253004649</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01033747095989964</v>
+        <v>0.009656321523308338</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0186236011925545</v>
+        <v>0.01915032198429307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01465575663095234</v>
+        <v>0.01527311122363877</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02035034342824045</v>
+        <v>0.02124904761434842</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01210135193388301</v>
+        <v>0.01239715687008568</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01389898488813957</v>
+        <v>0.01418004375200696</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.006553575943063774</v>
+        <v>0.007217835457479831</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01373748806388929</v>
+        <v>0.01429022687075167</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01258130440532958</v>
+        <v>0.01288213639472134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01834858776027403</v>
+        <v>0.01820682232132423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01264977622941956</v>
+        <v>0.01298985806503461</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01979951915545871</v>
+        <v>0.01957908178710191</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02865648274459512</v>
+        <v>0.02823791200442618</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0424434313060211</v>
+        <v>0.04050432673242255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03770766689580178</v>
+        <v>0.03571437377648811</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04908613905417731</v>
+        <v>0.05128005786095719</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03107308378191302</v>
+        <v>0.02988389089699696</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03360938047863993</v>
+        <v>0.03392778839242385</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01939284670520511</v>
+        <v>0.02006812600096464</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02920179059500065</v>
+        <v>0.02846628437771421</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02579295665490294</v>
+        <v>0.02597447667261864</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03353785673312184</v>
+        <v>0.03449085224766777</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02513293558578966</v>
+        <v>0.02522529749546619</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0373561148521076</v>
+        <v>0.03627266713702393</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.01427414625084266</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.03601502693250174</v>
+        <v>0.03601502693250173</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03053227804571018</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01883354705368766</v>
+        <v>0.0206945891953766</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01654569737444474</v>
+        <v>0.01686481649412254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004424033106501116</v>
+        <v>0.005430109863263703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01395603087103384</v>
+        <v>0.01390980038796768</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01581505694509122</v>
+        <v>0.01643729920686249</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01658446269855721</v>
+        <v>0.01781453047633441</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006933912677298693</v>
+        <v>0.007089766918463644</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02549160847533396</v>
+        <v>0.0258066339710997</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02189348708442981</v>
+        <v>0.02254888002243339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01933298831997046</v>
+        <v>0.0191896000087509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00769768290983829</v>
+        <v>0.007689149232857042</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02285830652117384</v>
+        <v>0.02230880426867379</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04930975660603819</v>
+        <v>0.05181899856207466</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04340651246456984</v>
+        <v>0.04602645675426419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02104991987076699</v>
+        <v>0.02120941196156154</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0419677601929175</v>
+        <v>0.04478341104621011</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03931527763845332</v>
+        <v>0.04429820104811497</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0468596703108906</v>
+        <v>0.04725299977165869</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02587170794830689</v>
+        <v>0.02592369802235519</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05039053757304853</v>
+        <v>0.05024810050601192</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04184973081856806</v>
+        <v>0.04151655939297522</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03978164423745107</v>
+        <v>0.03966337305627324</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02020677095208543</v>
+        <v>0.02010174551683596</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04087982934711702</v>
+        <v>0.04094886515540857</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01377950854344917</v>
+        <v>0.01358761275494451</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01176922028671852</v>
+        <v>0.01159721346052072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02420807932574871</v>
+        <v>0.02537550512239922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02989778516877967</v>
+        <v>0.03073210292572611</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01092883404285578</v>
+        <v>0.01051519568018943</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.009969708250449381</v>
+        <v>0.009504408663650718</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01993833835987806</v>
+        <v>0.01926858591948886</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02279509357568314</v>
+        <v>0.02332066775694764</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01401634116075003</v>
+        <v>0.0140088696874129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01271747989574885</v>
+        <v>0.01246986170650617</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.024700078235824</v>
+        <v>0.02445199669623098</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02899700134729174</v>
+        <v>0.02908509090636693</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03288597786742896</v>
+        <v>0.03180552798527208</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03107454119348992</v>
+        <v>0.03097708901225535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05021308371003417</v>
+        <v>0.05096414445919121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0549344875740292</v>
+        <v>0.05504757205518648</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0270314419331731</v>
+        <v>0.02878734293388312</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02764979383483415</v>
+        <v>0.0269545287295792</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04180171535624609</v>
+        <v>0.0420700623457906</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04250887092380527</v>
+        <v>0.04386904946584604</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02622732129197605</v>
+        <v>0.02597856169211251</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0249353104603011</v>
+        <v>0.02533555158353171</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04122433200952186</v>
+        <v>0.0414301379536426</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.04409370659804542</v>
+        <v>0.04506201400950122</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01684021372343114</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02524756570201811</v>
+        <v>0.02524756570201812</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.02111270282602259</v>
@@ -1241,7 +1241,7 @@
         <v>0.01874020404678483</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02717683336804382</v>
+        <v>0.02717683336804381</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01680354286804673</v>
+        <v>0.01674805776051106</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01716725408749016</v>
+        <v>0.01739179500325085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01597686030549271</v>
+        <v>0.01639614548125106</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02306512664005059</v>
+        <v>0.0234356419320887</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01600452319313419</v>
+        <v>0.01641497383582756</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01415501032243655</v>
+        <v>0.01381532839881635</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01325096155982227</v>
+        <v>0.0128351294274809</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0210326492188282</v>
+        <v>0.02117527927408592</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01791338027321584</v>
+        <v>0.01765666482636548</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01686747517256848</v>
+        <v>0.01718269304972934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01556939689635597</v>
+        <v>0.01573129365782322</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02350089482429639</v>
+        <v>0.02354427146744333</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02716655359054718</v>
+        <v>0.02742080444328979</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02873754901468104</v>
+        <v>0.02848585349785329</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02589410456963462</v>
+        <v>0.02595075834851577</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03663773220104943</v>
+        <v>0.0366325391653606</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.026346246769976</v>
+        <v>0.02655073934977242</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02473820169152301</v>
+        <v>0.02424202754594944</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02219278475277642</v>
+        <v>0.02168162697612598</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03049189505777665</v>
+        <v>0.03048789942205974</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.02502403741671308</v>
+        <v>0.0248546814804536</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02434047841880316</v>
+        <v>0.02454695256297445</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02233252796408997</v>
+        <v>0.02249227103648036</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03110763019590753</v>
+        <v>0.03199598862097031</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4381</v>
+        <v>4950</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3700</v>
+        <v>3724</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>955</v>
+        <v>989</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3887</v>
+        <v>3898</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8185</v>
+        <v>8430</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>938</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1883</v>
+        <v>2007</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4307</v>
+        <v>4302</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16013</v>
+        <v>16672</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6610</v>
+        <v>6665</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4560</v>
+        <v>4077</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10356</v>
+        <v>10626</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18471</v>
+        <v>19398</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18584</v>
+        <v>18579</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9263</v>
+        <v>9471</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18342</v>
+        <v>18793</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22860</v>
+        <v>22617</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9452</v>
+        <v>8742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12867</v>
+        <v>13276</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13242</v>
+        <v>12664</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>36469</v>
+        <v>36996</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22666</v>
+        <v>23380</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18294</v>
+        <v>17834</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26809</v>
+        <v>27954</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9932</v>
+        <v>9278</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18940</v>
+        <v>19475</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14971</v>
+        <v>15601</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>21346</v>
+        <v>22288</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11719</v>
+        <v>12005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14346</v>
+        <v>14636</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>6822</v>
+        <v>7514</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14711</v>
+        <v>15303</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>24272</v>
+        <v>24852</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>37599</v>
+        <v>37309</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>26090</v>
+        <v>26792</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>41970</v>
+        <v>41503</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27533</v>
+        <v>27131</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43164</v>
+        <v>41192</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>38518</v>
+        <v>36482</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>51487</v>
+        <v>53789</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>30091</v>
+        <v>28939</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>34691</v>
+        <v>35020</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20188</v>
+        <v>20891</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>31270</v>
+        <v>30483</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>49760</v>
+        <v>50110</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>68724</v>
+        <v>70677</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51837</v>
+        <v>52027</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>79186</v>
+        <v>76889</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12761</v>
+        <v>14022</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12535</v>
+        <v>12777</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3352</v>
+        <v>4114</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11208</v>
+        <v>11171</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10815</v>
+        <v>11240</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12889</v>
+        <v>13845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>5416</v>
+        <v>5538</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20706</v>
+        <v>20962</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>29806</v>
+        <v>30699</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>29672</v>
+        <v>29452</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11845</v>
+        <v>11832</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>36924</v>
+        <v>36036</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>33411</v>
+        <v>35112</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32886</v>
+        <v>34871</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33703</v>
+        <v>35964</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>26885</v>
+        <v>30293</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36418</v>
+        <v>36724</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20209</v>
+        <v>20249</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40930</v>
+        <v>40814</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>56975</v>
+        <v>56522</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>61057</v>
+        <v>60875</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>31095</v>
+        <v>30933</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>66034</v>
+        <v>66146</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12951</v>
+        <v>12771</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11154</v>
+        <v>10991</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22673</v>
+        <v>23767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>29601</v>
+        <v>30427</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11338</v>
+        <v>10909</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10487</v>
+        <v>9998</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20811</v>
+        <v>20112</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25468</v>
+        <v>26055</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>27715</v>
+        <v>27700</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25430</v>
+        <v>24935</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>48916</v>
+        <v>48424</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>61106</v>
+        <v>61291</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30910</v>
+        <v>29894</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29451</v>
+        <v>29358</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>47030</v>
+        <v>47733</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>54389</v>
+        <v>54501</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28043</v>
+        <v>29865</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29085</v>
+        <v>28353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>43632</v>
+        <v>43912</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47493</v>
+        <v>49013</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>51860</v>
+        <v>51368</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>49862</v>
+        <v>50662</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>81640</v>
+        <v>82047</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>92919</v>
+        <v>94960</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>54950</v>
+        <v>54768</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>58812</v>
+        <v>59581</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>54153</v>
+        <v>55574</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>81484</v>
+        <v>82793</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>54050</v>
+        <v>55436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>50368</v>
+        <v>49159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>46892</v>
+        <v>45420</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>78525</v>
+        <v>79057</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>119076</v>
+        <v>117369</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>117804</v>
+        <v>120006</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>107868</v>
+        <v>108989</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>170763</v>
+        <v>171078</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88838</v>
+        <v>89670</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>98449</v>
+        <v>97587</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>87766</v>
+        <v>87958</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>129432</v>
+        <v>129414</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>88976</v>
+        <v>89666</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>88026</v>
+        <v>86261</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>78534</v>
+        <v>76726</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>113840</v>
+        <v>113825</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>166342</v>
+        <v>165217</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>169997</v>
+        <v>171439</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>154724</v>
+        <v>155830</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>226035</v>
+        <v>232490</v>
       </c>
     </row>
     <row r="24">
